--- a/Curso Excel/Projeto_11.xlsx
+++ b/Curso Excel/Projeto_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Curso Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A435088B-9C34-47F0-8FFD-25BE0502921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB90AA-4AD3-4D2D-B9E8-6F10E218156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
@@ -654,18 +654,6 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -704,6 +692,18 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1065,7 +1065,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR" sz="1200"/>
-              <a:t>        Percentual de Aprovação Turma 1</a:t>
+              <a:t>        </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1000"/>
+              <a:t>Percentual de Aprovação Turma 1</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -4206,16 +4210,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4230,8 +4234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038600" y="114300"/>
-          <a:ext cx="3371850" cy="495300"/>
+          <a:off x="4076701" y="76200"/>
+          <a:ext cx="2971800" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4278,10 +4282,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2847976" cy="468013"/>
     <xdr:sp macro="" textlink="">
@@ -4297,7 +4301,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257674" y="95249"/>
+          <a:off x="4181474" y="57149"/>
           <a:ext cx="2847976" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4349,16 +4353,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4373,7 +4377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="495300"/>
+          <a:off x="2390775" y="219075"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4441,15 +4445,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361952</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>495302</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4479,7 +4483,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971552" y="1419226"/>
+          <a:off x="1104902" y="2409826"/>
           <a:ext cx="638173" cy="638173"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4515,15 +4519,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4549,6 +4553,319 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D54952E-1841-4CD8-B745-14429CCE2BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="704850"/>
+          <a:ext cx="981075" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Alunos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2BF62D-B074-4491-A9D9-7C596209737D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="1358837"/>
+          <a:ext cx="666750" cy="631888"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="333333"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53279EF3-3C0D-47D0-8578-B472489A56F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114426" y="3562351"/>
+          <a:ext cx="638174" cy="704849"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="333333"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56BD415-2CC1-4B52-BE45-C19A5A00E4E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="4819649"/>
+          <a:ext cx="609601" cy="609601"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="333333"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4599,16 +4916,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4623,8 +4940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1495424" y="85726"/>
-          <a:ext cx="1333500" cy="304800"/>
+          <a:off x="1895475" y="66676"/>
+          <a:ext cx="1343026" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4671,15 +4988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4694,7 +5011,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="247650"/>
+          <a:off x="8763000" y="66675"/>
           <a:ext cx="1238250" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5071,18 +5388,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}" name="Tabela14" displayName="Tabela14" ref="I18:N22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="I18:N22" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}" name="Tabela14" displayName="Tabela14" ref="I21:N25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="I21:N25" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5F17A634-D68D-4935-9941-689A7F4FFC3A}" name="  Nomes" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{4198719D-07C5-42F5-8513-8883A570656E}" name="Nota 1" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{547F0952-678A-462F-80DA-68B22FAF3694}" name="Nota 2" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{88FA2F47-C910-4D1D-BB92-F809A50482CF}" name="Média" dataDxfId="18">
-      <calculatedColumnFormula>(J19+K19)/2</calculatedColumnFormula>
+      <calculatedColumnFormula>(J22+K22)/2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{5DA1275B-E58D-4654-982E-8A778501DA31}" name="Matéria" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{1433328F-1F7D-4764-BE13-0286A3A4CA3D}" name="Situação" dataDxfId="16">
-      <calculatedColumnFormula>IF(L19&gt;6,"Aprovado","Reprovado")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(L22&gt;6,"Aprovado","Reprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5090,13 +5407,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}" name="Tabela4" displayName="Tabela4" ref="C17:D18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}" name="Tabela4" displayName="Tabela4" ref="C17:D18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="C17:D18" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A48D74B5-0E04-4BCD-A1D5-86338DE883EA}" name="Reprovado " dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{A48D74B5-0E04-4BCD-A1D5-86338DE883EA}" name="Reprovado " dataDxfId="7">
       <calculatedColumnFormula>COUNTIF(Tabela1[Situação],"Reprovado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E9998F26-52CB-4EA7-9CBD-F1A6F545D743}" name="Aprovado" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{E9998F26-52CB-4EA7-9CBD-F1A6F545D743}" name="Aprovado" dataDxfId="6">
       <calculatedColumnFormula>COUNTIF(Tabela1[Situação],"Aprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5403,8 +5720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13A9E66-D680-4FE8-88CA-7BE617AD4C5F}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6062,15 +6379,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -6107,68 +6424,6 @@
         <f>COUNTIF(Tabela1[Situação],"Aprovado")</f>
         <v>2</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>8</v>
-      </c>
-      <c r="L19" s="2">
-        <f>(J19+K19)/2</f>
-        <v>6</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <f>IF(L19&gt;6,"Aprovado","Reprovado")</f>
-        <v>Reprovado</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1">
-        <v>8</v>
-      </c>
-      <c r="K20" s="1">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" ref="L20:L22" si="0">(J20+K20)/2</f>
-        <v>6.5</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="1" t="str">
-        <f t="shared" ref="N20" si="1">IF(L20&gt;6,"Aprovado","Reprovado")</f>
-        <v>Aprovado</v>
-      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -6190,24 +6445,22 @@
         <v>5</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="1">
-        <v>8</v>
-      </c>
-      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="1" t="str">
-        <f>IF(L21&gt;6,"Aprovado","Reprovado")</f>
-        <v>Reprovado</v>
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -6232,23 +6485,23 @@
         <v>Aprovado</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>(J22+K22)/2</f>
+        <v>6</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N22" s="1" t="str">
-        <f t="shared" ref="N22" si="2">IF(L22&gt;6,"Aprovado","Reprovado")</f>
+        <f>IF(L22&gt;6,"Aprovado","Reprovado")</f>
         <v>Reprovado</v>
       </c>
     </row>
@@ -6260,17 +6513,37 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D25" si="3">(B23+C23)/2</f>
-        <v>7.5</v>
+        <f t="shared" ref="D23:D25" si="0">(B23+C23)/2</f>
+        <v>6.5</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" ref="F23:F25" si="4">IF(D23&gt;6,"Aprovado","Reprovado")</f>
+        <f t="shared" ref="F23:F25" si="1">IF(D23&gt;6,"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" ref="L23:L25" si="2">(J23+K23)/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" ref="N23" si="3">IF(L23&gt;6,"Aprovado","Reprovado")</f>
         <v>Aprovado</v>
       </c>
     </row>
@@ -6285,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -6293,6 +6566,26 @@
       </c>
       <c r="F24" s="1" t="str">
         <f>IF(D24&gt;6,"Aprovado","Reprovado")</f>
+        <v>Reprovado</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f>IF(L24&gt;6,"Aprovado","Reprovado")</f>
         <v>Reprovado</v>
       </c>
     </row>
@@ -6307,37 +6600,57 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>Reprovado</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" ref="N25" si="4">IF(L25&gt;6,"Aprovado","Reprovado")</f>
         <v>Reprovado</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Re">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Re">
       <formula>NOT(ISERROR(SEARCH("Re",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Aprovado">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Aprovado">
       <formula>NOT(ISERROR(SEARCH("Aprovado",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Re">
-      <formula>NOT(ISERROR(SEARCH("Re",N19)))</formula>
+  <conditionalFormatting sqref="N22:N25">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Re">
+      <formula>NOT(ISERROR(SEARCH("Re",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Aprovado">
-      <formula>NOT(ISERROR(SEARCH("Aprovado",N19)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Aprovado">
+      <formula>NOT(ISERROR(SEARCH("Aprovado",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E25 M19:M22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E25 M22:M25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Português,Matemática,Física,Quimica,Informatica,Artes,Economia"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Curso Excel/Projeto_11.xlsx
+++ b/Curso Excel/Projeto_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Curso Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB90AA-4AD3-4D2D-B9E8-6F10E218156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB88C8C-F780-4257-8A21-E9C701484FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4210,15 +4210,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4234,8 +4234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4076701" y="76200"/>
-          <a:ext cx="2971800" cy="495300"/>
+          <a:off x="4933949" y="76200"/>
+          <a:ext cx="2019301" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4282,12 +4282,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2847976" cy="468013"/>
+    <xdr:ext cx="2533651" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -4301,8 +4301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181474" y="57149"/>
-          <a:ext cx="2847976" cy="468013"/>
+          <a:off x="4638674" y="47624"/>
+          <a:ext cx="2533651" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4338,14 +4338,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="2400"/>
+            <a:rPr lang="pt-BR" sz="1600" b="1"/>
             <a:t>Menu</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-BR" sz="2400" baseline="0"/>
+            <a:rPr lang="pt-BR" sz="1600" b="1" baseline="0"/>
             <a:t> Escola Tridev</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
+          <a:endParaRPr lang="pt-BR" sz="900" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4353,14 +4353,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -4377,7 +4377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2390775" y="219075"/>
+          <a:off x="2638425" y="219075"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4445,15 +4445,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495302</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>504827</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4483,8 +4483,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104902" y="2409826"/>
-          <a:ext cx="638173" cy="638173"/>
+          <a:off x="1114427" y="2276476"/>
+          <a:ext cx="781048" cy="781048"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4519,16 +4519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4558,15 +4558,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4581,7 +4581,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="704850"/>
+          <a:off x="1028700" y="571500"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4649,15 +4649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25337</xdr:rowOff>
+      <xdr:colOff>532087</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4686,8 +4686,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="1358837"/>
-          <a:ext cx="666750" cy="631888"/>
+          <a:off x="1141687" y="1152525"/>
+          <a:ext cx="753788" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4729,9 +4729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>128800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4761,7 +4761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1114426" y="3562351"/>
-          <a:ext cx="638174" cy="704849"/>
+          <a:ext cx="685799" cy="757449"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4797,15 +4797,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4834,8 +4834,479 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1123950" y="4819649"/>
-          <a:ext cx="609601" cy="609601"/>
+          <a:off x="1114425" y="4857749"/>
+          <a:ext cx="781051" cy="781051"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="333333"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Retângulo: Cantos Arredondados 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CED208-B828-438D-9548-94C07C204CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="133350"/>
+          <a:ext cx="981075" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Turma 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Retângulo: Cantos Arredondados 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F087BF-A4E8-484B-905D-ABA7B1B5F472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="561975"/>
+          <a:ext cx="981075" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Alunos </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>231796</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2800F8-C88C-4534-BA04-3C42484AFCB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001001" y="1152525"/>
+          <a:ext cx="641370" cy="657118"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="333333"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D073BC4-A208-416A-A216-D0AFA8F9EBB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="2219324"/>
+          <a:ext cx="704851" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="333333"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>284738</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0E1C13-ADC0-4143-98E8-7014498873BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039101" y="3437523"/>
+          <a:ext cx="656212" cy="734428"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="333333"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BE05A4-CC79-4E8A-A372-CA874E9A0C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="4764294"/>
+          <a:ext cx="685800" cy="734227"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5718,10 +6189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13A9E66-D680-4FE8-88CA-7BE617AD4C5F}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6293,6 +6764,8 @@
     </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Curso Excel/Projeto_11.xlsx
+++ b/Curso Excel/Projeto_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Curso Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB88C8C-F780-4257-8A21-E9C701484FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE39714-C577-476C-BCAC-9FE81E18DC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t xml:space="preserve">  Nomes</t>
   </si>
@@ -652,7 +652,19 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1065,11 +1077,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR" sz="1200"/>
-              <a:t>        </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1000"/>
-              <a:t>Percentual de Aprovação Turma 1</a:t>
+              <a:t>       </a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -4353,16 +4361,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4377,7 +4385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2638425" y="219075"/>
+          <a:off x="2133600" y="47625"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4445,15 +4453,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504827</xdr:colOff>
+      <xdr:colOff>323852</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4483,8 +4491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114427" y="2276476"/>
-          <a:ext cx="781048" cy="781048"/>
+          <a:off x="933452" y="2105026"/>
+          <a:ext cx="695324" cy="695324"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4519,16 +4527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4558,15 +4566,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4581,7 +4589,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="571500"/>
+          <a:off x="762000" y="447675"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4649,15 +4657,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>532087</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>313012</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4686,8 +4694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1141687" y="1152525"/>
-          <a:ext cx="753788" cy="714375"/>
+          <a:off x="922612" y="952500"/>
+          <a:ext cx="677588" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4723,15 +4731,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
+      <xdr:colOff>333377</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128800</xdr:rowOff>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4760,8 +4768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114426" y="3562351"/>
-          <a:ext cx="685799" cy="757449"/>
+          <a:off x="942977" y="3457576"/>
+          <a:ext cx="657224" cy="680150"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4797,15 +4805,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4834,8 +4842,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="4857749"/>
-          <a:ext cx="781051" cy="781051"/>
+          <a:off x="962026" y="4857750"/>
+          <a:ext cx="638176" cy="638176"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4870,16 +4878,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4894,7 +4902,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="133350"/>
+          <a:off x="9667875" y="57150"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4961,16 +4969,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4985,7 +4993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="561975"/>
+          <a:off x="7134225" y="609600"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5045,16 +5053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>231796</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241321</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>95143</xdr:rowOff>
+      <xdr:rowOff>142768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5083,7 +5091,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001001" y="1152525"/>
+          <a:off x="7400926" y="1200150"/>
           <a:ext cx="641370" cy="657118"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5119,16 +5127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5157,7 +5165,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="2219324"/>
+          <a:off x="7381875" y="2266949"/>
           <a:ext cx="704851" cy="704851"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5193,16 +5201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>8523</xdr:rowOff>
+      <xdr:rowOff>56148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>284738</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>294263</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5231,7 +5239,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039101" y="3437523"/>
+          <a:off x="7439026" y="3485148"/>
           <a:ext cx="656212" cy="734428"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5267,16 +5275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1794</xdr:rowOff>
+      <xdr:rowOff>49419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>164521</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21646</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5305,7 +5313,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029575" y="4764294"/>
+          <a:off x="7429500" y="4811919"/>
           <a:ext cx="685800" cy="734227"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5337,6 +5345,181 @@
         </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Retângulo: Cantos Arredondados 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A7A207-8D7B-46CA-8430-8DC08D3269C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733674" y="742950"/>
+          <a:ext cx="2533651" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Percentual de Aprovação One Piece</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Retângulo: Cantos Arredondados 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8ADC8F7-18F7-4674-8864-58897D2EED63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905874" y="628650"/>
+          <a:ext cx="2533651" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Percentual de Aprovação Naruto</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5644,6 +5827,81 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo: Cantos Arredondados 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE5A298-134F-4C92-91B1-D5009A8E7290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="2724150"/>
+          <a:ext cx="1857375" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Indice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> de Aprovação</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5840,17 +6098,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9482625-8E3C-4173-935D-6C94D3DD56A5}" name="Tabela1" displayName="Tabela1" ref="A21:F25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9482625-8E3C-4173-935D-6C94D3DD56A5}" name="Tabela1" displayName="Tabela1" ref="A21:F25" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A21:F25" xr:uid="{B9482625-8E3C-4173-935D-6C94D3DD56A5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{640E99C5-C7D6-48F4-BD05-BB056A1FFE3E}" name="  Nomes" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7D0A9E51-29E0-4166-B245-86E0840C7FD8}" name="Nota 1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{625D9673-CE76-4832-8F0C-8ADD97DA6113}" name="Nota 2" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{79BB5D6E-6A0B-447B-AA04-563478E08E62}" name="Média" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{640E99C5-C7D6-48F4-BD05-BB056A1FFE3E}" name="  Nomes" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{7D0A9E51-29E0-4166-B245-86E0840C7FD8}" name="Nota 1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{625D9673-CE76-4832-8F0C-8ADD97DA6113}" name="Nota 2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{79BB5D6E-6A0B-447B-AA04-563478E08E62}" name="Média" dataDxfId="14">
       <calculatedColumnFormula>(B22+C22)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2F71B716-45F0-48A3-9F22-F57A7E92A0D5}" name="Matéria" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{9E0A9667-7B2C-4A4C-A240-E37F0D010F37}" name="Situação" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{2F71B716-45F0-48A3-9F22-F57A7E92A0D5}" name="Matéria" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{9E0A9667-7B2C-4A4C-A240-E37F0D010F37}" name="Situação" dataDxfId="12">
       <calculatedColumnFormula>IF(D22&gt;6,"Aprovado","Reprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5859,17 +6117,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}" name="Tabela14" displayName="Tabela14" ref="I21:N25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}" name="Tabela14" displayName="Tabela14" ref="I21:N25" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="I21:N25" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5F17A634-D68D-4935-9941-689A7F4FFC3A}" name="  Nomes" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{4198719D-07C5-42F5-8513-8883A570656E}" name="Nota 1" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{547F0952-678A-462F-80DA-68B22FAF3694}" name="Nota 2" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{88FA2F47-C910-4D1D-BB92-F809A50482CF}" name="Média" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{5F17A634-D68D-4935-9941-689A7F4FFC3A}" name="  Nomes" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{4198719D-07C5-42F5-8513-8883A570656E}" name="Nota 1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{547F0952-678A-462F-80DA-68B22FAF3694}" name="Nota 2" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{88FA2F47-C910-4D1D-BB92-F809A50482CF}" name="Média" dataDxfId="22">
       <calculatedColumnFormula>(J22+K22)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5DA1275B-E58D-4654-982E-8A778501DA31}" name="Matéria" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{1433328F-1F7D-4764-BE13-0286A3A4CA3D}" name="Situação" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{5DA1275B-E58D-4654-982E-8A778501DA31}" name="Matéria" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{1433328F-1F7D-4764-BE13-0286A3A4CA3D}" name="Situação" dataDxfId="20">
       <calculatedColumnFormula>IF(L22&gt;6,"Aprovado","Reprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5878,17 +6136,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}" name="Tabela4" displayName="Tabela4" ref="C17:D18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}" name="Tabela4" displayName="Tabela4" ref="C17:D18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C17:D18" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A48D74B5-0E04-4BCD-A1D5-86338DE883EA}" name="Reprovado " dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A48D74B5-0E04-4BCD-A1D5-86338DE883EA}" name="Reprovado " dataDxfId="11">
       <calculatedColumnFormula>COUNTIF(Tabela1[Situação],"Reprovado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E9998F26-52CB-4EA7-9CBD-F1A6F545D743}" name="Aprovado" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{E9998F26-52CB-4EA7-9CBD-F1A6F545D743}" name="Aprovado" dataDxfId="10">
       <calculatedColumnFormula>COUNTIF(Tabela1[Situação],"Aprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ADFB4A4F-66FD-43EB-A867-BBC6879DC9EB}" name="Tabela5" displayName="Tabela5" ref="K17:L18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="K17:L18" xr:uid="{ADFB4A4F-66FD-43EB-A867-BBC6879DC9EB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{514EA2EA-B50F-4E11-A9D9-9B212056C91E}" name="Reprovado" dataDxfId="3">
+      <calculatedColumnFormula>COUNTIF(Tabela14[Situação],"Reprovado")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{98480CDD-A03D-41C9-8DFD-45A759215080}" name="Aprovado" dataDxfId="2">
+      <calculatedColumnFormula>COUNTIF(Tabela14[Situação],"Aprovado")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6189,10 +6462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13A9E66-D680-4FE8-88CA-7BE617AD4C5F}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6200,8 +6473,10 @@
     <col min="1" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" hidden="1"/>
+    <col min="8" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="3" customWidth="1"/>
+    <col min="19" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
@@ -6762,10 +7037,6 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -6852,8 +7123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6866,7 +7137,9 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -6887,6 +7160,12 @@
       <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
@@ -6897,6 +7176,14 @@
         <f>COUNTIF(Tabela1[Situação],"Aprovado")</f>
         <v>2</v>
       </c>
+      <c r="K18" s="7">
+        <f>COUNTIF(Tabela14[Situação],"Reprovado")</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="7">
+        <f>COUNTIF(Tabela14[Situação],"Aprovado")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -7107,18 +7394,18 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Re">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Re">
       <formula>NOT(ISERROR(SEARCH("Re",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Aprovado">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Aprovado">
       <formula>NOT(ISERROR(SEARCH("Aprovado",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N25">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Re">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Re">
       <formula>NOT(ISERROR(SEARCH("Re",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Aprovado">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Aprovado">
       <formula>NOT(ISERROR(SEARCH("Aprovado",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7130,10 +7417,11 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Curso Excel/Projeto_11.xlsx
+++ b/Curso Excel/Projeto_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Curso Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE39714-C577-476C-BCAC-9FE81E18DC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E677A-4BB7-476D-BE4C-A143954D228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
@@ -1243,7 +1243,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1400,6 +1400,664 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2155513735306481"/>
+          <c:y val="6.8571428571428575E-2"/>
+          <c:w val="0.45341164090009339"/>
+          <c:h val="0.65809433820772401"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:explosion val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0C8F-4E9A-8609-74CA1ED991F4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0C8F-4E9A-8609-74CA1ED991F4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pasta1!$K$17:$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Reprovado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aprovado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pasta1!$K$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0C8F-4E9A-8609-74CA1ED991F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10499987258874195"/>
+          <c:y val="0"/>
+          <c:w val="0.89500000000000002"/>
+          <c:h val="0.82876567512394284"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{6ACC5B6D-5475-408B-9D81-E6010D18B93B}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-FC58-4106-9911-5A8DDE864FCB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pasta1!$I$22:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Naruto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sasuke</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kakashi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Obito</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pasta1!$L$22:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC58-4106-9911-5A8DDE864FCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:axId val="521406376"/>
+        <c:axId val="521409656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521406376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521409656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521409656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Média</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="521406376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1967,7 +2625,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2592,6 +3250,407 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-43AC-406E-AEB2-C7454A992B83}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pasta1!$I$22:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Naruto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sasuke</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kakashi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Obito</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pasta1!$L$22:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43AC-406E-AEB2-C7454A992B83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="521406376"/>
+        <c:axId val="521409656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521406376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521409656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521409656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Média</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521406376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2673,6 +3732,92 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3209,6 +4354,1069 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3711,7 +5919,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4210,6 +6418,573 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4527,16 +7302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4566,15 +7341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4589,7 +7364,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="447675"/>
+          <a:off x="790575" y="390525"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4969,16 +7744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4993,7 +7768,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7134225" y="609600"/>
+          <a:off x="7248525" y="457200"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5350,15 +8125,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5373,7 +8148,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733674" y="742950"/>
+          <a:off x="2771774" y="638175"/>
           <a:ext cx="2533651" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5440,14 +8215,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -5464,7 +8239,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8905874" y="628650"/>
+          <a:off x="9039224" y="628650"/>
           <a:ext cx="2533651" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5520,6 +8295,82 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Gráfico 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5728CA04-D9B8-4808-B502-5D54064A3847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Gráfico 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99EBB74-0121-4F72-A540-3095004038DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5900,6 +8751,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E360AC93-4DF4-43C8-A248-23F680D2C614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6462,10 +9349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13A9E66-D680-4FE8-88CA-7BE617AD4C5F}">
-  <dimension ref="A1:XFD31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7123,8 +10010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7178,11 +10065,11 @@
       </c>
       <c r="K18" s="7">
         <f>COUNTIF(Tabela14[Situação],"Reprovado")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="7">
         <f>COUNTIF(Tabela14[Situação],"Aprovado")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7290,21 +10177,21 @@
         <v>20</v>
       </c>
       <c r="J23" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K23" s="1">
         <v>5</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" ref="L23:L25" si="2">(J23+K23)/2</f>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" ref="N23" si="3">IF(L23&gt;6,"Aprovado","Reprovado")</f>
-        <v>Aprovado</v>
+        <v>Reprovado</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/Curso Excel/Projeto_11.xlsx
+++ b/Curso Excel/Projeto_11.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Curso Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E677A-4BB7-476D-BE4C-A143954D228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C58379-B529-4788-AC52-9BFBDAE04B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="4" r:id="rId2"/>
-    <sheet name="Pasta1" sheetId="1" r:id="rId3"/>
+    <sheet name="Pasta1" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -243,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +429,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -590,7 +596,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,6 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1599,10 +1606,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,8 +1718,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10499987258874195"/>
-          <c:y val="0"/>
+          <c:x val="3.8884189063143969E-2"/>
+          <c:y val="2.6666666666666668E-2"/>
           <c:w val="0.89500000000000002"/>
           <c:h val="0.82876567512394284"/>
         </c:manualLayout>
@@ -1868,13 +1875,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -2064,297 +2071,14 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Projeto_11.xlsx]Planilha3!Tabela dinâmica14</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Contagem de Matéria</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2364,172 +2088,153 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$C$3</c:f>
+              <c:f>Pasta1!$A$22:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Luffy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zoro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sanji</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Planilha3!$A$4:$B$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Aprovado</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Reprovado</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Reprovado</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Aprovado</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Matemática</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Português</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Quimica</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$C$4:$C$7</c:f>
+              <c:f>Pasta1!$D$22:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C23E-4078-A4A1-7855B86BE39F}"/>
+              <c16:uniqueId val="{00000000-C80A-4C4C-B430-B861E1BEBAF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="580573944"/>
-        <c:axId val="580570992"/>
+        <c:gapWidth val="41"/>
+        <c:axId val="468171224"/>
+        <c:axId val="468174176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="580573944"/>
+        <c:axId val="468171224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="580570992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="580570992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2546,13 +2251,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2561,7 +2264,84 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580573944"/>
+        <c:crossAx val="468174176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="468174176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Média</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="468171224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2575,19 +2355,19 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2607,21 +2387,6 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -3263,8 +3028,291 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Projeto_11.xlsx]Planilha3!Tabela dinâmica14</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Contagem de Matéria</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3274,167 +3322,172 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="84000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="20000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-43AC-406E-AEB2-C7454A992B83}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Pasta1!$I$22:$I$25</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Planilha3!$A$4:$B$7</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Naruto</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sasuke</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Kakashi</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Obito</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Aprovado</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Reprovado</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Reprovado</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Aprovado</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matemática</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Português</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Quimica</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pasta1!$L$22:$L$25</c:f>
+              <c:f>Planilha3!$C$4:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43AC-406E-AEB2-C7454A992B83}"/>
+              <c16:uniqueId val="{00000000-C23E-4078-A4A1-7855B86BE39F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="521406376"/>
-        <c:axId val="521409656"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="580573944"/>
+        <c:axId val="580570992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521406376"/>
+        <c:axId val="580573944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580570992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580570992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3453,122 +3506,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="521409656"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="521409656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Média</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3581,7 +3519,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521406376"/>
+        <c:crossAx val="580573944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3595,36 +3533,15 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="68000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:lin ang="5400000" scaled="1"/>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3648,6 +3565,21 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -3738,42 +3670,8 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -5417,1012 +5315,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6985,6 +5877,1012 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7136,16 +7034,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7160,7 +7058,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="47625"/>
+          <a:off x="2867025" y="57150"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7305,13 +7203,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7653,16 +7551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7677,7 +7575,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9667875" y="57150"/>
+          <a:off x="8382000" y="28575"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7744,14 +7642,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7768,7 +7666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7248525" y="457200"/>
+          <a:off x="7086600" y="457200"/>
           <a:ext cx="981075" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7829,15 +7727,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241321</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142768</xdr:rowOff>
+      <xdr:colOff>69871</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7866,7 +7764,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7400926" y="1200150"/>
+          <a:off x="7229476" y="1057275"/>
           <a:ext cx="641370" cy="657118"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7903,15 +7801,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7940,7 +7838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7381875" y="2266949"/>
+          <a:off x="7210425" y="2124074"/>
           <a:ext cx="704851" cy="704851"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7977,15 +7875,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>56148</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>294263</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>122813</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8014,7 +7912,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439026" y="3485148"/>
+          <a:off x="7267576" y="3342273"/>
           <a:ext cx="656212" cy="734428"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8051,15 +7949,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>49419</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>21646</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8088,7 +7986,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7429500" y="4811919"/>
+          <a:off x="7258050" y="4669044"/>
           <a:ext cx="685800" cy="734227"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8216,7 +8114,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -8239,8 +8137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9039224" y="628650"/>
-          <a:ext cx="2533651" cy="257175"/>
+          <a:off x="9477375" y="628650"/>
+          <a:ext cx="2095500" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8337,16 +8235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16383</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8373,34 +8271,372 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Retângulo: Cantos Arredondados 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0921FC55-F73D-46D1-9E48-97E4D4C54AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="3400425"/>
+          <a:ext cx="1952626" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Média</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> Turma Naruto</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Retângulo: Cantos Arredondados 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C48682-7395-4513-A946-069A18874053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="1219200"/>
+          <a:ext cx="981075" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1057275" cy="264560"/>
+    <xdr:sp macro="" textlink="Pasta1!L22">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CaixaDeTexto 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6F4862-4A0F-4B23-9ED4-547BC892F2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096249" y="1228725"/>
+          <a:ext cx="1057275" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Media: </a:t>
+          </a:r>
+          <a:fld id="{3C91356F-1DBA-4B32-9E10-D3ACC76EC72B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>7,50</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Retângulo: Cantos Arredondados 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5FA811-8058-4EC9-B05D-D409D8127C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="3448050"/>
+          <a:ext cx="1952626" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Média</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> Turma One Piece</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="37" name="Gráfico 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668171FC-BA6F-4860-8E54-E834B5D4FF3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D0119D-6C22-4CA3-B118-D93F7B87F4E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8408,7 +8644,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8417,7 +8653,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8753,25 +8989,30 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Gráfico 13">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E360AC93-4DF4-43C8-A248-23F680D2C614}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668171FC-BA6F-4860-8E54-E834B5D4FF3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8783,7 +9024,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9351,8 +9592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13A9E66-D680-4FE8-88CA-7BE617AD4C5F}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9361,12 +9602,12 @@
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="8" customWidth="1"/>
     <col min="19" max="16383" width="9.140625" hidden="1"/>
     <col min="16384" max="16384" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -9383,8 +9624,9 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9401,8 +9643,9 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9419,8 +9662,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -9437,8 +9681,9 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9455,8 +9700,9 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -9473,8 +9719,9 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -9491,8 +9738,9 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -9509,8 +9757,9 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -9527,8 +9776,9 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -9545,8 +9795,9 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -9563,8 +9814,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -9581,8 +9833,9 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9599,8 +9852,9 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9617,8 +9871,9 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9635,8 +9890,9 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -9653,8 +9909,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9671,8 +9928,9 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9689,8 +9947,9 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9707,8 +9966,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9725,8 +9985,9 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -9743,8 +10004,9 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -9761,8 +10023,9 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -9779,8 +10042,9 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9797,8 +10061,9 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -9815,8 +10080,9 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -9833,8 +10099,9 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -9851,8 +10118,9 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -9869,8 +10137,9 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -9887,8 +10156,9 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -9905,8 +10175,9 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -9923,6 +10194,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9931,87 +10203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A347165-23E5-4D01-97F1-44783CDF76F6}">
-  <dimension ref="A3:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10065,11 +10261,11 @@
       </c>
       <c r="K18" s="7">
         <f>COUNTIF(Tabela14[Situação],"Reprovado")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" s="7">
         <f>COUNTIF(Tabela14[Situação],"Aprovado")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -10135,21 +10331,21 @@
         <v>15</v>
       </c>
       <c r="J22" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" s="2">
         <f>(J22+K22)/2</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N22" s="1" t="str">
         <f>IF(L22&gt;6,"Aprovado","Reprovado")</f>
-        <v>Reprovado</v>
+        <v>Aprovado</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -10222,18 +10418,18 @@
         <v>8</v>
       </c>
       <c r="K24" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N24" s="1" t="str">
         <f>IF(L24&gt;6,"Aprovado","Reprovado")</f>
-        <v>Reprovado</v>
+        <v>Aprovado</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -10311,4 +10507,80 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A347165-23E5-4D01-97F1-44783CDF76F6}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Curso Excel/Projeto_11.xlsx
+++ b/Curso Excel/Projeto_11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Curso Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C58379-B529-4788-AC52-9BFBDAE04B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A0C56-DF1B-4536-82DF-6AC7D481D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,20 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t xml:space="preserve">  Nomes</t>
   </si>
@@ -95,6 +103,9 @@
   </si>
   <si>
     <t>Obito</t>
+  </si>
+  <si>
+    <t>Física</t>
   </si>
 </sst>
 </file>
@@ -673,46 +684,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1029,6 +1000,46 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2201,7 +2212,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -7200,16 +7211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8447,11 +8458,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1057275" cy="264560"/>
+    <xdr:ext cx="981076" cy="264560"/>
     <xdr:sp macro="" textlink="Pasta1!L22">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="CaixaDeTexto 33">
@@ -8465,8 +8476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8096249" y="1228725"/>
-          <a:ext cx="1057275" cy="264560"/>
+          <a:off x="8096250" y="1228725"/>
+          <a:ext cx="981076" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8511,6 +8522,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>7,50</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100">
@@ -9226,17 +9238,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9482625-8E3C-4173-935D-6C94D3DD56A5}" name="Tabela1" displayName="Tabela1" ref="A21:F25" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9482625-8E3C-4173-935D-6C94D3DD56A5}" name="Tabela1" displayName="Tabela1" ref="A21:F25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A21:F25" xr:uid="{B9482625-8E3C-4173-935D-6C94D3DD56A5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{640E99C5-C7D6-48F4-BD05-BB056A1FFE3E}" name="  Nomes" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{7D0A9E51-29E0-4166-B245-86E0840C7FD8}" name="Nota 1" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{625D9673-CE76-4832-8F0C-8ADD97DA6113}" name="Nota 2" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{79BB5D6E-6A0B-447B-AA04-563478E08E62}" name="Média" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{640E99C5-C7D6-48F4-BD05-BB056A1FFE3E}" name="  Nomes" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{7D0A9E51-29E0-4166-B245-86E0840C7FD8}" name="Nota 1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{625D9673-CE76-4832-8F0C-8ADD97DA6113}" name="Nota 2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{79BB5D6E-6A0B-447B-AA04-563478E08E62}" name="Média" dataDxfId="18">
       <calculatedColumnFormula>(B22+C22)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2F71B716-45F0-48A3-9F22-F57A7E92A0D5}" name="Matéria" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{9E0A9667-7B2C-4A4C-A240-E37F0D010F37}" name="Situação" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{2F71B716-45F0-48A3-9F22-F57A7E92A0D5}" name="Matéria" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{9E0A9667-7B2C-4A4C-A240-E37F0D010F37}" name="Situação" dataDxfId="16">
       <calculatedColumnFormula>IF(D22&gt;6,"Aprovado","Reprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9245,17 +9257,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}" name="Tabela14" displayName="Tabela14" ref="I21:N25" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}" name="Tabela14" displayName="Tabela14" ref="I21:N25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="I21:N25" xr:uid="{9827115C-3051-4F25-959A-69B90D003F00}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5F17A634-D68D-4935-9941-689A7F4FFC3A}" name="  Nomes" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{4198719D-07C5-42F5-8513-8883A570656E}" name="Nota 1" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{547F0952-678A-462F-80DA-68B22FAF3694}" name="Nota 2" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{88FA2F47-C910-4D1D-BB92-F809A50482CF}" name="Média" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{5F17A634-D68D-4935-9941-689A7F4FFC3A}" name="  Nomes" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4198719D-07C5-42F5-8513-8883A570656E}" name="Nota 1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{547F0952-678A-462F-80DA-68B22FAF3694}" name="Nota 2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{88FA2F47-C910-4D1D-BB92-F809A50482CF}" name="Média" dataDxfId="10">
       <calculatedColumnFormula>(J22+K22)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5DA1275B-E58D-4654-982E-8A778501DA31}" name="Matéria" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{1433328F-1F7D-4764-BE13-0286A3A4CA3D}" name="Situação" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{5DA1275B-E58D-4654-982E-8A778501DA31}" name="Matéria" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{1433328F-1F7D-4764-BE13-0286A3A4CA3D}" name="Situação" dataDxfId="8">
       <calculatedColumnFormula>IF(L22&gt;6,"Aprovado","Reprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9264,13 +9276,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}" name="Tabela4" displayName="Tabela4" ref="C17:D18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}" name="Tabela4" displayName="Tabela4" ref="C17:D18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="C17:D18" xr:uid="{043DF0D7-200F-407D-AA8C-7B9DA5A3AB5C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A48D74B5-0E04-4BCD-A1D5-86338DE883EA}" name="Reprovado " dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{A48D74B5-0E04-4BCD-A1D5-86338DE883EA}" name="Reprovado " dataDxfId="5">
       <calculatedColumnFormula>COUNTIF(Tabela1[Situação],"Reprovado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E9998F26-52CB-4EA7-9CBD-F1A6F545D743}" name="Aprovado" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{E9998F26-52CB-4EA7-9CBD-F1A6F545D743}" name="Aprovado" dataDxfId="4">
       <calculatedColumnFormula>COUNTIF(Tabela1[Situação],"Aprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9279,13 +9291,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ADFB4A4F-66FD-43EB-A867-BBC6879DC9EB}" name="Tabela5" displayName="Tabela5" ref="K17:L18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ADFB4A4F-66FD-43EB-A867-BBC6879DC9EB}" name="Tabela5" displayName="Tabela5" ref="K17:L18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="K17:L18" xr:uid="{ADFB4A4F-66FD-43EB-A867-BBC6879DC9EB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{514EA2EA-B50F-4E11-A9D9-9B212056C91E}" name="Reprovado" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{514EA2EA-B50F-4E11-A9D9-9B212056C91E}" name="Reprovado" dataDxfId="1">
       <calculatedColumnFormula>COUNTIF(Tabela14[Situação],"Reprovado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{98480CDD-A03D-41C9-8DFD-45A759215080}" name="Aprovado" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{98480CDD-A03D-41C9-8DFD-45A759215080}" name="Aprovado" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(Tabela14[Situação],"Aprovado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9590,10 +9602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13A9E66-D680-4FE8-88CA-7BE617AD4C5F}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="B1:XFC31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10206,8 +10218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10258,6 +10270,10 @@
       <c r="D18" s="7">
         <f>COUNTIF(Tabela1[Situação],"Aprovado")</f>
         <v>2</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIFS(Tabela1[Matéria],"Física",Tabela1[Situação],"Aprovado")</f>
+        <v>1</v>
       </c>
       <c r="K18" s="7">
         <f>COUNTIF(Tabela14[Situação],"Reprovado")</f>
@@ -10321,7 +10337,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>IF(D22&gt;6,"Aprovado","Reprovado")</f>
@@ -10398,14 +10414,14 @@
         <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>(B24+C24)/2</f>
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>IF(D24&gt;6,"Aprovado","Reprovado")</f>
@@ -10477,18 +10493,18 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Re">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="Re">
       <formula>NOT(ISERROR(SEARCH("Re",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Aprovado">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="Aprovado">
       <formula>NOT(ISERROR(SEARCH("Aprovado",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N25">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Re">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Re">
       <formula>NOT(ISERROR(SEARCH("Re",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Aprovado">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Aprovado">
       <formula>NOT(ISERROR(SEARCH("Aprovado",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
